--- a/data/occurences/interim/NorthernSpain_ES_TOTAL_v1.xlsx
+++ b/data/occurences/interim/NorthernSpain_ES_TOTAL_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WARD\OneDrive - UGent\School\1ste master\sem_2\Project\data\occurences\interim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WARD\OneDrive - UGent\School\1ste master\sem_2\Project\landsnails-occurrences\data\occurences\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E796F1C-C6A4-4BA0-8FBB-0E686A07A5DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{2E796F1C-C6A4-4BA0-8FBB-0E686A07A5DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{6904BC13-5D81-417D-9CAD-9E9719C848B8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AF$190</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="427">
   <si>
     <t>orderNumber</t>
   </si>
@@ -1295,6 +1301,21 @@
   </si>
   <si>
     <t>closed umbilicus, determination based on Cadevall and Orozco (2016)</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1370,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1358,6 +1378,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1641,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AF23" sqref="AF23"/>
+    <sheetView topLeftCell="H55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P78" sqref="P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1656,14 +1679,14 @@
     <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="79.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -1710,7 +1733,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1800,7 +1823,7 @@
       <c r="H2" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>38217</v>
       </c>
       <c r="J2" s="1">
@@ -1875,7 +1898,7 @@
       <c r="H3" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>41449</v>
       </c>
       <c r="J3" s="1">
@@ -1947,7 +1970,7 @@
       <c r="H4" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>41452</v>
       </c>
       <c r="J4" s="1">
@@ -2016,7 +2039,7 @@
       <c r="H5" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>41452</v>
       </c>
       <c r="J5" s="1">
@@ -2091,7 +2114,7 @@
       <c r="H6" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>41486</v>
       </c>
       <c r="J6" s="1">
@@ -2172,7 +2195,7 @@
       <c r="H7" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>41486</v>
       </c>
       <c r="J7" s="1">
@@ -2255,7 +2278,7 @@
       <c r="H8" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>41486</v>
       </c>
       <c r="J8" s="1">
@@ -2336,7 +2359,7 @@
       <c r="H9" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>41486</v>
       </c>
       <c r="J9" s="1">
@@ -2417,7 +2440,7 @@
       <c r="H10" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>41486</v>
       </c>
       <c r="J10" s="1">
@@ -2492,7 +2515,7 @@
       <c r="H11" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>41487</v>
       </c>
       <c r="J11" s="1">
@@ -2576,7 +2599,7 @@
       <c r="H12" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>41487</v>
       </c>
       <c r="J12" s="1">
@@ -2662,7 +2685,7 @@
       <c r="H13" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>41492</v>
       </c>
       <c r="J13" s="1">
@@ -2735,7 +2758,7 @@
       </c>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>41492</v>
       </c>
       <c r="J14" s="1">
@@ -2819,7 +2842,7 @@
       <c r="H15" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>41494</v>
       </c>
       <c r="J15" s="1">
@@ -2903,7 +2926,7 @@
       <c r="H16" t="s">
         <v>91</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>41496</v>
       </c>
       <c r="J16" s="1">
@@ -2978,7 +3001,7 @@
       <c r="H17" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>41496</v>
       </c>
       <c r="J17" s="1">
@@ -3059,7 +3082,7 @@
       <c r="H18" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>41496</v>
       </c>
       <c r="J18" s="1">
@@ -3137,7 +3160,7 @@
       <c r="H19" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>41496</v>
       </c>
       <c r="J19" s="1">
@@ -3215,7 +3238,7 @@
       <c r="H20" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>41496</v>
       </c>
       <c r="J20" s="1">
@@ -3299,7 +3322,7 @@
       <c r="H21" t="s">
         <v>132</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>41496</v>
       </c>
       <c r="J21" s="1">
@@ -3383,7 +3406,7 @@
       <c r="H22" t="s">
         <v>137</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>41496</v>
       </c>
       <c r="J22" s="1">
@@ -3460,7 +3483,7 @@
       <c r="E23" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>41496</v>
       </c>
       <c r="J23" s="1">
@@ -3544,7 +3567,7 @@
       <c r="H24" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>41496</v>
       </c>
       <c r="J24" s="1">
@@ -3628,7 +3651,7 @@
       <c r="H25" t="s">
         <v>148</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>41496</v>
       </c>
       <c r="J25" s="1">
@@ -3706,7 +3729,7 @@
       <c r="H26" t="s">
         <v>153</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>41496</v>
       </c>
       <c r="J26" s="1">
@@ -3784,7 +3807,7 @@
       <c r="H27" t="s">
         <v>158</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>41496</v>
       </c>
       <c r="J27" s="1">
@@ -3860,7 +3883,7 @@
       </c>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <v>41496</v>
       </c>
       <c r="J28" s="1">
@@ -3940,7 +3963,7 @@
       <c r="F29" t="s">
         <v>162</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <v>42205</v>
       </c>
       <c r="J29" s="1">
@@ -4021,10 +4044,10 @@
         <v>168</v>
       </c>
       <c r="G30"/>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <v>42205</v>
       </c>
       <c r="J30" s="1">
@@ -4105,7 +4128,7 @@
       <c r="H31" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="3">
         <v>42205</v>
       </c>
       <c r="J31" s="1">
@@ -4180,7 +4203,7 @@
       <c r="H32" t="s">
         <v>86</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="3">
         <v>42205</v>
       </c>
       <c r="J32" s="1">
@@ -4255,7 +4278,7 @@
       <c r="H33" t="s">
         <v>177</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="3">
         <v>42205</v>
       </c>
       <c r="J33" s="1">
@@ -4336,7 +4359,7 @@
       <c r="H34" t="s">
         <v>182</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="3">
         <v>42205</v>
       </c>
       <c r="J34" s="1">
@@ -4420,7 +4443,7 @@
       <c r="H35" t="s">
         <v>91</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <v>42205</v>
       </c>
       <c r="J35" s="1">
@@ -4501,7 +4524,7 @@
       <c r="H36" t="s">
         <v>190</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="3">
         <v>42205</v>
       </c>
       <c r="J36" s="1">
@@ -4578,7 +4601,7 @@
       <c r="H37" t="s">
         <v>86</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="3">
         <v>42205</v>
       </c>
       <c r="J37" s="1">
@@ -4649,7 +4672,7 @@
       <c r="F38" t="s">
         <v>192</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="3">
         <v>42205</v>
       </c>
       <c r="J38" s="1">
@@ -4727,7 +4750,7 @@
       <c r="H39" t="s">
         <v>45</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="3">
         <v>42205</v>
       </c>
       <c r="J39" s="1">
@@ -4801,7 +4824,7 @@
       <c r="E40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="3">
         <v>42205</v>
       </c>
       <c r="J40" s="1">
@@ -4879,7 +4902,7 @@
       <c r="H41" t="s">
         <v>81</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="3">
         <v>42205</v>
       </c>
       <c r="J41" s="1">
@@ -4960,7 +4983,7 @@
       <c r="H42" t="s">
         <v>200</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="3">
         <v>42205</v>
       </c>
       <c r="J42" s="1">
@@ -5041,7 +5064,7 @@
       <c r="H43" t="s">
         <v>81</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="3">
         <v>42206</v>
       </c>
       <c r="J43" s="1">
@@ -5122,7 +5145,7 @@
       <c r="H44" t="s">
         <v>200</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="3">
         <v>42206</v>
       </c>
       <c r="J44" s="1">
@@ -5203,7 +5226,7 @@
       <c r="H45" t="s">
         <v>153</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="3">
         <v>42207</v>
       </c>
       <c r="J45" s="1">
@@ -5284,7 +5307,7 @@
       <c r="H46" t="s">
         <v>73</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="3">
         <v>42207</v>
       </c>
       <c r="J46" s="1">
@@ -5362,10 +5385,10 @@
         <v>168</v>
       </c>
       <c r="G47"/>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="3">
         <v>42207</v>
       </c>
       <c r="J47" s="1">
@@ -5446,7 +5469,7 @@
       <c r="H48" t="s">
         <v>57</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="3">
         <v>42207</v>
       </c>
       <c r="J48" s="1">
@@ -5530,7 +5553,7 @@
       <c r="H49" t="s">
         <v>62</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="3">
         <v>42207</v>
       </c>
       <c r="J49" s="1">
@@ -5614,7 +5637,7 @@
       <c r="H50" t="s">
         <v>210</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="3">
         <v>42208</v>
       </c>
       <c r="J50" s="1">
@@ -5694,7 +5717,7 @@
       <c r="F51" t="s">
         <v>162</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="3">
         <v>42210</v>
       </c>
       <c r="J51" s="1">
@@ -5778,7 +5801,7 @@
       <c r="H52" t="s">
         <v>219</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="3">
         <v>42210</v>
       </c>
       <c r="J52" s="1">
@@ -5856,10 +5879,10 @@
         <v>168</v>
       </c>
       <c r="G53"/>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="3">
         <v>42210</v>
       </c>
       <c r="J53" s="1">
@@ -5940,7 +5963,7 @@
       <c r="H54" t="s">
         <v>91</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I54" s="3">
         <v>42210</v>
       </c>
       <c r="J54" s="1">
@@ -6021,7 +6044,7 @@
       <c r="H55" t="s">
         <v>190</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="3">
         <v>42210</v>
       </c>
       <c r="J55" s="1">
@@ -6102,7 +6125,7 @@
       <c r="H56" t="s">
         <v>148</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I56" s="3">
         <v>42210</v>
       </c>
       <c r="J56" s="1">
@@ -6183,7 +6206,7 @@
       <c r="H57" t="s">
         <v>233</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="3">
         <v>42210</v>
       </c>
       <c r="J57" s="1">
@@ -6264,7 +6287,7 @@
       <c r="H58" t="s">
         <v>86</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58" s="3">
         <v>42213</v>
       </c>
       <c r="J58" s="1">
@@ -6339,7 +6362,7 @@
       <c r="H59" t="s">
         <v>210</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I59" s="3">
         <v>42213</v>
       </c>
       <c r="J59" s="1">
@@ -6423,7 +6446,7 @@
       <c r="H60" t="s">
         <v>241</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I60" s="3">
         <v>42213</v>
       </c>
       <c r="J60" s="1">
@@ -6504,7 +6527,7 @@
       <c r="H61" t="s">
         <v>81</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I61" s="3">
         <v>42215</v>
       </c>
       <c r="J61" s="1">
@@ -6573,7 +6596,7 @@
       <c r="H62" t="s">
         <v>200</v>
       </c>
-      <c r="I62" s="4">
+      <c r="I62" s="3">
         <v>42215</v>
       </c>
       <c r="J62" s="1">
@@ -6642,7 +6665,7 @@
       <c r="H63" t="s">
         <v>210</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I63" s="3">
         <v>42215</v>
       </c>
       <c r="J63" s="1">
@@ -6711,7 +6734,7 @@
       <c r="H64" t="s">
         <v>137</v>
       </c>
-      <c r="I64" s="4">
+      <c r="I64" s="3">
         <v>42215</v>
       </c>
       <c r="J64" s="1">
@@ -6792,7 +6815,7 @@
       <c r="H65" t="s">
         <v>210</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I65" s="3">
         <v>42215</v>
       </c>
       <c r="J65" s="1">
@@ -6859,7 +6882,7 @@
       </c>
       <c r="G66"/>
       <c r="H66"/>
-      <c r="I66" s="4">
+      <c r="I66" s="3">
         <v>42215</v>
       </c>
       <c r="J66" s="1">
@@ -6943,7 +6966,7 @@
       <c r="H67" t="s">
         <v>81</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I67" s="3">
         <v>42215</v>
       </c>
       <c r="J67" s="1">
@@ -7012,7 +7035,7 @@
       <c r="H68" t="s">
         <v>200</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I68" s="3">
         <v>42215</v>
       </c>
       <c r="J68" s="1">
@@ -7077,7 +7100,7 @@
       <c r="F69"/>
       <c r="G69"/>
       <c r="H69"/>
-      <c r="I69" s="4">
+      <c r="I69" s="3">
         <v>42215</v>
       </c>
       <c r="J69" s="1">
@@ -7161,7 +7184,7 @@
       <c r="H70" t="s">
         <v>86</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="3">
         <v>42215</v>
       </c>
       <c r="J70" s="1">
@@ -7242,7 +7265,7 @@
       <c r="H71" t="s">
         <v>158</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I71" s="3">
         <v>42215</v>
       </c>
       <c r="J71" s="1">
@@ -7326,7 +7349,7 @@
       <c r="H72" t="s">
         <v>153</v>
       </c>
-      <c r="I72" s="4">
+      <c r="I72" s="3">
         <v>42215</v>
       </c>
       <c r="J72" s="1">
@@ -7401,7 +7424,7 @@
       <c r="H73" t="s">
         <v>91</v>
       </c>
-      <c r="I73" s="4">
+      <c r="I73" s="3">
         <v>43717</v>
       </c>
       <c r="J73" s="1">
@@ -7473,7 +7496,7 @@
       <c r="H74" t="s">
         <v>91</v>
       </c>
-      <c r="I74" s="4">
+      <c r="I74" s="3">
         <v>43718</v>
       </c>
       <c r="J74" s="1">
@@ -7557,7 +7580,7 @@
       <c r="H75" t="s">
         <v>86</v>
       </c>
-      <c r="I75" s="4">
+      <c r="I75" s="3">
         <v>43717</v>
       </c>
       <c r="J75" s="1">
@@ -7635,7 +7658,7 @@
       <c r="H76" t="s">
         <v>91</v>
       </c>
-      <c r="I76" s="4">
+      <c r="I76" s="3">
         <v>43717</v>
       </c>
       <c r="J76" s="1">
@@ -7707,7 +7730,7 @@
       <c r="H77" t="s">
         <v>91</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I77" s="3">
         <v>43717</v>
       </c>
       <c r="J77" s="1">
@@ -7785,7 +7808,7 @@
       <c r="H78" t="s">
         <v>148</v>
       </c>
-      <c r="I78" s="4">
+      <c r="I78" s="3">
         <v>43717</v>
       </c>
       <c r="J78" s="1">
@@ -7869,7 +7892,7 @@
       <c r="H79" t="s">
         <v>273</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I79" s="3">
         <v>43717</v>
       </c>
       <c r="J79" s="1">
@@ -7943,7 +7966,7 @@
       <c r="E80" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="I80" s="4">
+      <c r="I80" s="3">
         <v>43718</v>
       </c>
       <c r="J80" s="1">
@@ -8024,7 +8047,7 @@
       <c r="H81" t="s">
         <v>210</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I81" s="3">
         <v>43718</v>
       </c>
       <c r="J81" s="1">
@@ -8102,7 +8125,7 @@
       <c r="H82" t="s">
         <v>200</v>
       </c>
-      <c r="I82" s="4">
+      <c r="I82" s="3">
         <v>43718</v>
       </c>
       <c r="J82" s="1">
@@ -8180,7 +8203,7 @@
       <c r="H83" t="s">
         <v>148</v>
       </c>
-      <c r="I83" s="4">
+      <c r="I83" s="3">
         <v>43718</v>
       </c>
       <c r="J83" s="1">
@@ -8251,7 +8274,7 @@
       <c r="E84" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I84" s="4">
+      <c r="I84" s="3">
         <v>43718</v>
       </c>
       <c r="J84" s="1">
@@ -8326,7 +8349,7 @@
       <c r="H85" t="s">
         <v>158</v>
       </c>
-      <c r="I85" s="4">
+      <c r="I85" s="3">
         <v>43719</v>
       </c>
       <c r="J85" s="1">
@@ -8404,7 +8427,7 @@
       <c r="H86" t="s">
         <v>73</v>
       </c>
-      <c r="I86" s="4">
+      <c r="I86" s="3">
         <v>43719</v>
       </c>
       <c r="J86" s="1">
@@ -8482,7 +8505,7 @@
       <c r="H87" t="s">
         <v>210</v>
       </c>
-      <c r="I87" s="4">
+      <c r="I87" s="3">
         <v>43719</v>
       </c>
       <c r="J87" s="1">
@@ -8560,7 +8583,7 @@
       <c r="H88" t="s">
         <v>286</v>
       </c>
-      <c r="I88" s="4">
+      <c r="I88" s="3">
         <v>43719</v>
       </c>
       <c r="J88" s="1">
@@ -8641,7 +8664,7 @@
       <c r="H89" t="s">
         <v>200</v>
       </c>
-      <c r="I89" s="4">
+      <c r="I89" s="3">
         <v>43719</v>
       </c>
       <c r="J89" s="1">
@@ -8719,7 +8742,7 @@
       <c r="H90" t="s">
         <v>200</v>
       </c>
-      <c r="I90" s="4">
+      <c r="I90" s="3">
         <v>43719</v>
       </c>
       <c r="J90" s="1">
@@ -8803,7 +8826,7 @@
       <c r="H91" t="s">
         <v>290</v>
       </c>
-      <c r="I91" s="4">
+      <c r="I91" s="3">
         <v>43719</v>
       </c>
       <c r="J91" s="1">
@@ -8887,7 +8910,7 @@
       <c r="H92" t="s">
         <v>73</v>
       </c>
-      <c r="I92" s="4">
+      <c r="I92" s="3">
         <v>43719</v>
       </c>
       <c r="J92" s="1">
@@ -8965,7 +8988,7 @@
       <c r="H93" t="s">
         <v>286</v>
       </c>
-      <c r="I93" s="4">
+      <c r="I93" s="3">
         <v>43719</v>
       </c>
       <c r="J93" s="1">
@@ -9052,7 +9075,7 @@
       <c r="H94" t="s">
         <v>291</v>
       </c>
-      <c r="I94" s="4">
+      <c r="I94" s="3">
         <v>43719</v>
       </c>
       <c r="J94" s="1">
@@ -9133,7 +9156,7 @@
       <c r="H95" t="s">
         <v>91</v>
       </c>
-      <c r="I95" s="4">
+      <c r="I95" s="3">
         <v>43719</v>
       </c>
       <c r="J95" s="1">
@@ -9217,7 +9240,7 @@
       <c r="H96" t="s">
         <v>182</v>
       </c>
-      <c r="I96" s="4">
+      <c r="I96" s="3">
         <v>43719</v>
       </c>
       <c r="J96" s="1">
@@ -9301,7 +9324,7 @@
       <c r="H97" t="s">
         <v>298</v>
       </c>
-      <c r="I97" s="4">
+      <c r="I97" s="3">
         <v>43719</v>
       </c>
       <c r="J97" s="1">
@@ -9388,7 +9411,7 @@
       <c r="H98" t="s">
         <v>233</v>
       </c>
-      <c r="I98" s="4">
+      <c r="I98" s="3">
         <v>43719</v>
       </c>
       <c r="J98" s="1">
@@ -9472,7 +9495,7 @@
       <c r="H99" t="s">
         <v>286</v>
       </c>
-      <c r="I99" s="4">
+      <c r="I99" s="3">
         <v>43719</v>
       </c>
       <c r="J99" s="1">
@@ -9559,7 +9582,7 @@
       <c r="H100" t="s">
         <v>300</v>
       </c>
-      <c r="I100" s="4">
+      <c r="I100" s="3">
         <v>43719</v>
       </c>
       <c r="J100" s="1">
@@ -9643,7 +9666,7 @@
       <c r="H101" t="s">
         <v>210</v>
       </c>
-      <c r="I101" s="4">
+      <c r="I101" s="3">
         <v>43719</v>
       </c>
       <c r="J101" s="1">
@@ -9727,7 +9750,7 @@
       <c r="H102" t="s">
         <v>91</v>
       </c>
-      <c r="I102" s="4">
+      <c r="I102" s="3">
         <v>43719</v>
       </c>
       <c r="J102" s="1">
@@ -9811,7 +9834,7 @@
       <c r="H103" t="s">
         <v>200</v>
       </c>
-      <c r="I103" s="4">
+      <c r="I103" s="3">
         <v>43719</v>
       </c>
       <c r="J103" s="1">
@@ -9892,10 +9915,10 @@
         <v>168</v>
       </c>
       <c r="G104"/>
-      <c r="H104" s="5" t="s">
+      <c r="H104" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="I104" s="4">
+      <c r="I104" s="3">
         <v>43720</v>
       </c>
       <c r="J104" s="1">
@@ -9979,7 +10002,7 @@
       <c r="H105" t="s">
         <v>308</v>
       </c>
-      <c r="I105" s="4">
+      <c r="I105" s="3">
         <v>43720</v>
       </c>
       <c r="J105" s="1">
@@ -10060,7 +10083,7 @@
       <c r="H106" t="s">
         <v>182</v>
       </c>
-      <c r="I106" s="4">
+      <c r="I106" s="3">
         <v>43720</v>
       </c>
       <c r="J106" s="1">
@@ -10144,7 +10167,7 @@
       <c r="H107" t="s">
         <v>312</v>
       </c>
-      <c r="I107" s="4">
+      <c r="I107" s="3">
         <v>43720</v>
       </c>
       <c r="J107" s="1">
@@ -10224,7 +10247,7 @@
       <c r="E108" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I108" s="4">
+      <c r="I108" s="3">
         <v>43720</v>
       </c>
       <c r="J108" s="1">
@@ -10311,7 +10334,7 @@
       <c r="H109" t="s">
         <v>177</v>
       </c>
-      <c r="I109" s="4">
+      <c r="I109" s="3">
         <v>43720</v>
       </c>
       <c r="J109" s="1">
@@ -10395,7 +10418,7 @@
       <c r="H110" t="s">
         <v>91</v>
       </c>
-      <c r="I110" s="4">
+      <c r="I110" s="3">
         <v>43720</v>
       </c>
       <c r="J110" s="1">
@@ -10473,7 +10496,7 @@
       <c r="H111" t="s">
         <v>319</v>
       </c>
-      <c r="I111" s="4">
+      <c r="I111" s="3">
         <v>43720</v>
       </c>
       <c r="J111" s="1">
@@ -10557,7 +10580,7 @@
       <c r="H112" t="s">
         <v>57</v>
       </c>
-      <c r="I112" s="4">
+      <c r="I112" s="3">
         <v>43720</v>
       </c>
       <c r="J112" s="1">
@@ -10644,7 +10667,7 @@
       <c r="H113" t="s">
         <v>308</v>
       </c>
-      <c r="I113" s="4">
+      <c r="I113" s="3">
         <v>43720</v>
       </c>
       <c r="J113" s="1">
@@ -10731,7 +10754,7 @@
       <c r="H114" t="s">
         <v>324</v>
       </c>
-      <c r="I114" s="4">
+      <c r="I114" s="3">
         <v>43720</v>
       </c>
       <c r="J114" s="1">
@@ -10815,7 +10838,7 @@
       <c r="H115" t="s">
         <v>329</v>
       </c>
-      <c r="I115" s="4">
+      <c r="I115" s="3">
         <v>43720</v>
       </c>
       <c r="J115" s="1">
@@ -10899,7 +10922,7 @@
       <c r="H116" t="s">
         <v>334</v>
       </c>
-      <c r="I116" s="4">
+      <c r="I116" s="3">
         <v>43720</v>
       </c>
       <c r="J116" s="1">
@@ -10979,7 +11002,7 @@
       <c r="E117" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="I117" s="4">
+      <c r="I117" s="3">
         <v>43720</v>
       </c>
       <c r="J117" s="1">
@@ -11060,7 +11083,7 @@
       <c r="H118" t="s">
         <v>57</v>
       </c>
-      <c r="I118" s="4">
+      <c r="I118" s="3">
         <v>43720</v>
       </c>
       <c r="J118" s="1">
@@ -11147,7 +11170,7 @@
       <c r="H119" t="s">
         <v>312</v>
       </c>
-      <c r="I119" s="4">
+      <c r="I119" s="3">
         <v>43720</v>
       </c>
       <c r="J119" s="1">
@@ -11234,7 +11257,7 @@
       <c r="H120" t="s">
         <v>329</v>
       </c>
-      <c r="I120" s="4">
+      <c r="I120" s="3">
         <v>43720</v>
       </c>
       <c r="J120" s="1">
@@ -11318,7 +11341,7 @@
       <c r="H121" t="s">
         <v>336</v>
       </c>
-      <c r="I121" s="4">
+      <c r="I121" s="3">
         <v>43720</v>
       </c>
       <c r="J121" s="1">
@@ -11395,7 +11418,7 @@
       <c r="E122" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="I122" s="4">
+      <c r="I122" s="3">
         <v>43720</v>
       </c>
       <c r="J122" s="1">
@@ -11476,7 +11499,7 @@
       <c r="H123" t="s">
         <v>339</v>
       </c>
-      <c r="I123" s="4">
+      <c r="I123" s="3">
         <v>43720</v>
       </c>
       <c r="J123" s="1">
@@ -11560,7 +11583,7 @@
       <c r="H124" t="s">
         <v>343</v>
       </c>
-      <c r="I124" s="4">
+      <c r="I124" s="3">
         <v>43720</v>
       </c>
       <c r="J124" s="1">
@@ -11644,7 +11667,7 @@
       <c r="H125" t="s">
         <v>344</v>
       </c>
-      <c r="I125" s="4">
+      <c r="I125" s="3">
         <v>43720</v>
       </c>
       <c r="J125" s="1">
@@ -11722,7 +11745,7 @@
       <c r="H126" t="s">
         <v>200</v>
       </c>
-      <c r="I126" s="4">
+      <c r="I126" s="3">
         <v>43721</v>
       </c>
       <c r="J126" s="1">
@@ -11806,7 +11829,7 @@
       <c r="H127" t="s">
         <v>346</v>
       </c>
-      <c r="I127" s="4">
+      <c r="I127" s="3">
         <v>43721</v>
       </c>
       <c r="J127" s="1">
@@ -11890,7 +11913,7 @@
       <c r="H128" t="s">
         <v>91</v>
       </c>
-      <c r="I128" s="4">
+      <c r="I128" s="3">
         <v>43721</v>
       </c>
       <c r="J128" s="1">
@@ -11974,7 +11997,7 @@
       <c r="H129" t="s">
         <v>91</v>
       </c>
-      <c r="I129" s="4">
+      <c r="I129" s="3">
         <v>43721</v>
       </c>
       <c r="J129" s="1">
@@ -12058,7 +12081,7 @@
       <c r="H130" t="s">
         <v>350</v>
       </c>
-      <c r="I130" s="4">
+      <c r="I130" s="3">
         <v>43721</v>
       </c>
       <c r="J130" s="1">
@@ -12136,7 +12159,7 @@
       <c r="H131" t="s">
         <v>354</v>
       </c>
-      <c r="I131" s="4">
+      <c r="I131" s="3">
         <v>43721</v>
       </c>
       <c r="J131" s="1">
@@ -12214,7 +12237,7 @@
       <c r="H132" t="s">
         <v>91</v>
       </c>
-      <c r="I132" s="4">
+      <c r="I132" s="3">
         <v>43722</v>
       </c>
       <c r="J132" s="1">
@@ -12286,7 +12309,7 @@
       <c r="H133" t="s">
         <v>91</v>
       </c>
-      <c r="I133" s="4">
+      <c r="I133" s="3">
         <v>43722</v>
       </c>
       <c r="J133" s="1">
@@ -12370,7 +12393,7 @@
       <c r="H134" t="s">
         <v>354</v>
       </c>
-      <c r="I134" s="4">
+      <c r="I134" s="3">
         <v>43722</v>
       </c>
       <c r="J134" s="1">
@@ -12454,7 +12477,7 @@
       <c r="H135" t="s">
         <v>86</v>
       </c>
-      <c r="I135" s="4">
+      <c r="I135" s="3">
         <v>43722</v>
       </c>
       <c r="J135" s="1">
@@ -12532,7 +12555,7 @@
       <c r="H136" t="s">
         <v>86</v>
       </c>
-      <c r="I136" s="4">
+      <c r="I136" s="3">
         <v>43722</v>
       </c>
       <c r="J136" s="1">
@@ -12613,7 +12636,7 @@
       <c r="H137" t="s">
         <v>91</v>
       </c>
-      <c r="I137" s="4">
+      <c r="I137" s="3">
         <v>43722</v>
       </c>
       <c r="J137" s="1">
@@ -12697,7 +12720,7 @@
       <c r="H138" t="s">
         <v>364</v>
       </c>
-      <c r="I138" s="4">
+      <c r="I138" s="3">
         <v>43722</v>
       </c>
       <c r="J138" s="1">
@@ -12784,7 +12807,7 @@
       <c r="H139" t="s">
         <v>73</v>
       </c>
-      <c r="I139" s="4">
+      <c r="I139" s="3">
         <v>43722</v>
       </c>
       <c r="J139" s="1">
@@ -12868,7 +12891,7 @@
       <c r="H140" t="s">
         <v>190</v>
       </c>
-      <c r="I140" s="4">
+      <c r="I140" s="3">
         <v>43722</v>
       </c>
       <c r="J140" s="1">
@@ -12939,7 +12962,7 @@
       <c r="D141" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="I141" s="4">
+      <c r="I141" s="3">
         <v>43722</v>
       </c>
       <c r="J141" s="1">
@@ -13013,7 +13036,7 @@
       <c r="D142" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="I142" s="4">
+      <c r="I142" s="3">
         <v>43722</v>
       </c>
       <c r="J142" s="1">
@@ -13100,7 +13123,7 @@
       <c r="H143" t="s">
         <v>350</v>
       </c>
-      <c r="I143" s="4">
+      <c r="I143" s="3">
         <v>43722</v>
       </c>
       <c r="J143" s="1">
@@ -13184,7 +13207,7 @@
       <c r="H144" t="s">
         <v>329</v>
       </c>
-      <c r="I144" s="4">
+      <c r="I144" s="3">
         <v>43722</v>
       </c>
       <c r="J144" s="1">
@@ -13262,7 +13285,7 @@
       <c r="H145" t="s">
         <v>177</v>
       </c>
-      <c r="I145" s="4">
+      <c r="I145" s="3">
         <v>43722</v>
       </c>
       <c r="J145" s="1">
@@ -13343,7 +13366,7 @@
       <c r="H146" t="s">
         <v>91</v>
       </c>
-      <c r="I146" s="4">
+      <c r="I146" s="3">
         <v>43722</v>
       </c>
       <c r="J146" s="1">
@@ -13427,7 +13450,7 @@
       <c r="H147" t="s">
         <v>86</v>
       </c>
-      <c r="I147" s="4">
+      <c r="I147" s="3">
         <v>43722</v>
       </c>
       <c r="J147" s="1">
@@ -13505,7 +13528,7 @@
       <c r="H148" t="s">
         <v>364</v>
       </c>
-      <c r="I148" s="4">
+      <c r="I148" s="3">
         <v>43722</v>
       </c>
       <c r="J148" s="1">
@@ -13592,7 +13615,7 @@
       <c r="H149" t="s">
         <v>86</v>
       </c>
-      <c r="I149" s="4">
+      <c r="I149" s="3">
         <v>43722</v>
       </c>
       <c r="J149" s="1">
@@ -13670,7 +13693,7 @@
       <c r="H150" t="s">
         <v>91</v>
       </c>
-      <c r="I150" s="4">
+      <c r="I150" s="3">
         <v>43722</v>
       </c>
       <c r="J150" s="1">
@@ -13754,7 +13777,7 @@
       <c r="H151" t="s">
         <v>177</v>
       </c>
-      <c r="I151" s="4">
+      <c r="I151" s="3">
         <v>43722</v>
       </c>
       <c r="J151" s="1">
@@ -13835,7 +13858,7 @@
       <c r="H152" t="s">
         <v>86</v>
       </c>
-      <c r="I152" s="4">
+      <c r="I152" s="3">
         <v>43722</v>
       </c>
       <c r="J152" s="1">
@@ -13916,7 +13939,7 @@
       <c r="H153" t="s">
         <v>73</v>
       </c>
-      <c r="I153" s="4">
+      <c r="I153" s="3">
         <v>43722</v>
       </c>
       <c r="J153" s="1">
@@ -14000,7 +14023,7 @@
       <c r="H154" t="s">
         <v>329</v>
       </c>
-      <c r="I154" s="4">
+      <c r="I154" s="3">
         <v>43722</v>
       </c>
       <c r="J154" s="1">
@@ -14078,7 +14101,7 @@
       <c r="H155" t="s">
         <v>91</v>
       </c>
-      <c r="I155" s="4">
+      <c r="I155" s="3">
         <v>43722</v>
       </c>
       <c r="J155" s="1">
@@ -14162,7 +14185,7 @@
       <c r="H156" t="s">
         <v>375</v>
       </c>
-      <c r="I156" s="4">
+      <c r="I156" s="3">
         <v>43722</v>
       </c>
       <c r="J156" s="1">
@@ -14240,7 +14263,7 @@
       <c r="H157" t="s">
         <v>233</v>
       </c>
-      <c r="I157" s="4">
+      <c r="I157" s="3">
         <v>43722</v>
       </c>
       <c r="J157" s="1">
@@ -14324,7 +14347,7 @@
       <c r="H158" t="s">
         <v>190</v>
       </c>
-      <c r="I158" s="4">
+      <c r="I158" s="3">
         <v>43722</v>
       </c>
       <c r="J158" s="1">
@@ -14408,7 +14431,7 @@
       <c r="H159" t="s">
         <v>91</v>
       </c>
-      <c r="I159" s="4">
+      <c r="I159" s="3">
         <v>43722</v>
       </c>
       <c r="J159" s="1">
@@ -14492,7 +14515,7 @@
       <c r="H160" t="s">
         <v>91</v>
       </c>
-      <c r="I160" s="4">
+      <c r="I160" s="3">
         <v>43722</v>
       </c>
       <c r="J160" s="1">
@@ -14567,10 +14590,10 @@
         <v>378</v>
       </c>
       <c r="G161"/>
-      <c r="H161" s="5" t="s">
+      <c r="H161" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="I161" s="4">
+      <c r="I161" s="3">
         <v>43722</v>
       </c>
       <c r="J161" s="1">
@@ -14654,7 +14677,7 @@
       <c r="H162" t="s">
         <v>91</v>
       </c>
-      <c r="I162" s="4">
+      <c r="I162" s="3">
         <v>43723</v>
       </c>
       <c r="J162" s="1">
@@ -14726,7 +14749,7 @@
       <c r="H163" t="s">
         <v>86</v>
       </c>
-      <c r="I163" s="4">
+      <c r="I163" s="3">
         <v>43723</v>
       </c>
       <c r="J163" s="1">
@@ -14798,7 +14821,7 @@
       <c r="H164" t="s">
         <v>91</v>
       </c>
-      <c r="I164" s="4">
+      <c r="I164" s="3">
         <v>43723</v>
       </c>
       <c r="J164" s="1">
@@ -14872,7 +14895,7 @@
       <c r="H165" t="s">
         <v>86</v>
       </c>
-      <c r="I165" s="4">
+      <c r="I165" s="3">
         <v>43723</v>
       </c>
       <c r="J165" s="1">
@@ -14950,7 +14973,7 @@
       <c r="H166" t="s">
         <v>86</v>
       </c>
-      <c r="I166" s="4">
+      <c r="I166" s="3">
         <v>43724</v>
       </c>
       <c r="J166" s="1">
@@ -15016,7 +15039,7 @@
       <c r="H167" t="s">
         <v>153</v>
       </c>
-      <c r="I167" s="4">
+      <c r="I167" s="3">
         <v>43724</v>
       </c>
       <c r="J167" s="1">
@@ -15082,7 +15105,7 @@
       <c r="H168" t="s">
         <v>91</v>
       </c>
-      <c r="I168" s="4">
+      <c r="I168" s="3">
         <v>43724</v>
       </c>
       <c r="J168" s="1">
@@ -15151,7 +15174,7 @@
       <c r="H169" t="s">
         <v>148</v>
       </c>
-      <c r="I169" s="4">
+      <c r="I169" s="3">
         <v>43724</v>
       </c>
       <c r="J169" s="1">
@@ -15235,7 +15258,7 @@
       <c r="H170" t="s">
         <v>148</v>
       </c>
-      <c r="I170" s="4">
+      <c r="I170" s="3">
         <v>43724</v>
       </c>
       <c r="J170" s="1">
@@ -15319,7 +15342,7 @@
       <c r="H171" t="s">
         <v>81</v>
       </c>
-      <c r="I171" s="4">
+      <c r="I171" s="3">
         <v>43724</v>
       </c>
       <c r="J171" s="1">
@@ -15385,7 +15408,7 @@
       <c r="H172" t="s">
         <v>388</v>
       </c>
-      <c r="I172" s="4">
+      <c r="I172" s="3">
         <v>43724</v>
       </c>
       <c r="J172" s="1">
@@ -15454,7 +15477,7 @@
       <c r="H173" t="s">
         <v>86</v>
       </c>
-      <c r="I173" s="4">
+      <c r="I173" s="3">
         <v>43724</v>
       </c>
       <c r="J173" s="1">
@@ -15520,7 +15543,7 @@
       <c r="H174" t="s">
         <v>148</v>
       </c>
-      <c r="I174" s="4">
+      <c r="I174" s="3">
         <v>43724</v>
       </c>
       <c r="J174" s="1">
@@ -15604,7 +15627,7 @@
       <c r="H175" t="s">
         <v>73</v>
       </c>
-      <c r="I175" s="4">
+      <c r="I175" s="3">
         <v>43724</v>
       </c>
       <c r="J175" s="1">
@@ -15670,7 +15693,7 @@
       <c r="H176" t="s">
         <v>91</v>
       </c>
-      <c r="I176" s="4">
+      <c r="I176" s="3">
         <v>43724</v>
       </c>
       <c r="J176" s="1">
@@ -15736,7 +15759,7 @@
       <c r="H177" t="s">
         <v>391</v>
       </c>
-      <c r="I177" s="4">
+      <c r="I177" s="3">
         <v>43724</v>
       </c>
       <c r="J177" s="1">
@@ -15805,7 +15828,7 @@
       <c r="H178" t="s">
         <v>86</v>
       </c>
-      <c r="I178" s="4">
+      <c r="I178" s="3">
         <v>43724</v>
       </c>
       <c r="J178" s="1">
@@ -15873,7 +15896,7 @@
       <c r="H179" t="s">
         <v>400</v>
       </c>
-      <c r="I179" s="4">
+      <c r="I179" s="3">
         <v>43724</v>
       </c>
       <c r="J179" s="1">
@@ -15960,7 +15983,7 @@
       <c r="H180" t="s">
         <v>148</v>
       </c>
-      <c r="I180" s="4">
+      <c r="I180" s="3">
         <v>43724</v>
       </c>
       <c r="J180" s="1">
@@ -16044,7 +16067,7 @@
       <c r="H181" t="s">
         <v>81</v>
       </c>
-      <c r="I181" s="4">
+      <c r="I181" s="3">
         <v>43724</v>
       </c>
       <c r="J181" s="1">
@@ -16122,7 +16145,7 @@
       <c r="H182" t="s">
         <v>81</v>
       </c>
-      <c r="I182" s="4">
+      <c r="I182" s="3">
         <v>43724</v>
       </c>
       <c r="J182" s="1">
@@ -16202,7 +16225,7 @@
       <c r="F183" t="s">
         <v>404</v>
       </c>
-      <c r="I183" s="4">
+      <c r="I183" s="3">
         <v>43724</v>
       </c>
       <c r="J183" s="1">
@@ -16289,7 +16312,7 @@
       <c r="H184" t="s">
         <v>406</v>
       </c>
-      <c r="I184" s="4">
+      <c r="I184" s="3">
         <v>43724</v>
       </c>
       <c r="J184" s="1">
@@ -16373,7 +16396,7 @@
       <c r="H185" t="s">
         <v>407</v>
       </c>
-      <c r="I185" s="4">
+      <c r="I185" s="3">
         <v>43724</v>
       </c>
       <c r="J185" s="1">
@@ -16454,7 +16477,7 @@
       <c r="H186" t="s">
         <v>409</v>
       </c>
-      <c r="I186" s="4">
+      <c r="I186" s="3">
         <v>43724</v>
       </c>
       <c r="J186" s="1">
@@ -16541,7 +16564,7 @@
       <c r="H187" t="s">
         <v>86</v>
       </c>
-      <c r="I187" s="4">
+      <c r="I187" s="3">
         <v>43724</v>
       </c>
       <c r="J187" s="1">
@@ -16627,7 +16650,7 @@
       <c r="H188" t="s">
         <v>415</v>
       </c>
-      <c r="I188" s="4">
+      <c r="I188" s="3">
         <v>43724</v>
       </c>
       <c r="J188" s="1">
@@ -16704,7 +16727,7 @@
       <c r="E189" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="I189" s="4">
+      <c r="I189" s="3">
         <v>43724</v>
       </c>
       <c r="J189" s="1">
@@ -16775,7 +16798,7 @@
       <c r="D190" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I190" s="4">
+      <c r="I190" s="3">
         <v>43724</v>
       </c>
       <c r="J190" s="1">
@@ -16864,60 +16887,666 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E53F98C-C9C3-4A73-95D1-4B8B4ABD340A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:N190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="6" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="11" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E1" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-4.9894239999999996</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-2.637003</v>
+      </c>
+      <c r="G2" s="1">
+        <v>43.464820860000003</v>
+      </c>
+      <c r="H2" s="1">
+        <v>43.064563999999997</v>
+      </c>
+      <c r="J2" s="3">
+        <v>38217</v>
+      </c>
+      <c r="K2" s="3">
+        <v>43724</v>
+      </c>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N77" s="3"/>
+    </row>
+    <row r="78" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N78" s="3"/>
+    </row>
+    <row r="79" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N80" s="3"/>
+    </row>
+    <row r="81" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N102" s="3"/>
+    </row>
+    <row r="103" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N103" s="3"/>
+    </row>
+    <row r="104" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N104" s="3"/>
+    </row>
+    <row r="105" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N105" s="3"/>
+    </row>
+    <row r="106" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N106" s="3"/>
+    </row>
+    <row r="107" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N107" s="3"/>
+    </row>
+    <row r="108" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N108" s="3"/>
+    </row>
+    <row r="109" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N109" s="3"/>
+    </row>
+    <row r="110" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N110" s="3"/>
+    </row>
+    <row r="111" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N111" s="3"/>
+    </row>
+    <row r="112" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N112" s="3"/>
+    </row>
+    <row r="113" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N113" s="3"/>
+    </row>
+    <row r="114" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N114" s="3"/>
+    </row>
+    <row r="115" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N115" s="3"/>
+    </row>
+    <row r="116" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N116" s="3"/>
+    </row>
+    <row r="117" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N117" s="3"/>
+    </row>
+    <row r="118" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N118" s="3"/>
+    </row>
+    <row r="119" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N119" s="3"/>
+    </row>
+    <row r="120" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N120" s="3"/>
+    </row>
+    <row r="121" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N121" s="3"/>
+    </row>
+    <row r="122" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N122" s="3"/>
+    </row>
+    <row r="123" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N123" s="3"/>
+    </row>
+    <row r="124" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N124" s="3"/>
+    </row>
+    <row r="125" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N125" s="3"/>
+    </row>
+    <row r="126" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N126" s="3"/>
+    </row>
+    <row r="127" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N127" s="3"/>
+    </row>
+    <row r="128" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N128" s="3"/>
+    </row>
+    <row r="129" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N129" s="3"/>
+    </row>
+    <row r="130" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N130" s="3"/>
+    </row>
+    <row r="131" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N131" s="3"/>
+    </row>
+    <row r="132" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N132" s="3"/>
+    </row>
+    <row r="133" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N133" s="3"/>
+    </row>
+    <row r="134" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N134" s="3"/>
+    </row>
+    <row r="135" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N135" s="3"/>
+    </row>
+    <row r="136" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N136" s="3"/>
+    </row>
+    <row r="137" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N137" s="3"/>
+    </row>
+    <row r="138" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N138" s="3"/>
+    </row>
+    <row r="139" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N139" s="3"/>
+    </row>
+    <row r="140" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N140" s="3"/>
+    </row>
+    <row r="141" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N141" s="3"/>
+    </row>
+    <row r="142" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N142" s="3"/>
+    </row>
+    <row r="143" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N143" s="3"/>
+    </row>
+    <row r="144" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N144" s="3"/>
+    </row>
+    <row r="145" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N145" s="3"/>
+    </row>
+    <row r="146" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N146" s="3"/>
+    </row>
+    <row r="147" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N147" s="3"/>
+    </row>
+    <row r="148" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N148" s="3"/>
+    </row>
+    <row r="149" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N149" s="3"/>
+    </row>
+    <row r="150" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N150" s="3"/>
+    </row>
+    <row r="151" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N151" s="3"/>
+    </row>
+    <row r="152" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N152" s="3"/>
+    </row>
+    <row r="153" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N153" s="3"/>
+    </row>
+    <row r="154" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N154" s="3"/>
+    </row>
+    <row r="155" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N155" s="3"/>
+    </row>
+    <row r="156" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N156" s="3"/>
+    </row>
+    <row r="157" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N157" s="3"/>
+    </row>
+    <row r="158" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N158" s="3"/>
+    </row>
+    <row r="159" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N159" s="3"/>
+    </row>
+    <row r="160" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N160" s="3"/>
+    </row>
+    <row r="161" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N161" s="3"/>
+    </row>
+    <row r="162" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N162" s="3"/>
+    </row>
+    <row r="163" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N163" s="3"/>
+    </row>
+    <row r="164" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N164" s="3"/>
+    </row>
+    <row r="165" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N165" s="3"/>
+    </row>
+    <row r="166" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N166" s="3"/>
+    </row>
+    <row r="167" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N167" s="3"/>
+    </row>
+    <row r="168" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N168" s="3"/>
+    </row>
+    <row r="169" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N169" s="3"/>
+    </row>
+    <row r="170" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N170" s="3"/>
+    </row>
+    <row r="171" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N171" s="3"/>
+    </row>
+    <row r="172" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N172" s="3"/>
+    </row>
+    <row r="173" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N173" s="3"/>
+    </row>
+    <row r="174" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N174" s="3"/>
+    </row>
+    <row r="175" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N175" s="3"/>
+    </row>
+    <row r="176" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N176" s="3"/>
+    </row>
+    <row r="177" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N177" s="3"/>
+    </row>
+    <row r="178" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N178" s="3"/>
+    </row>
+    <row r="179" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N179" s="3"/>
+    </row>
+    <row r="180" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N180" s="3"/>
+    </row>
+    <row r="181" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N181" s="3"/>
+    </row>
+    <row r="182" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N182" s="3"/>
+    </row>
+    <row r="183" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N183" s="3"/>
+    </row>
+    <row r="184" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N184" s="3"/>
+    </row>
+    <row r="185" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N185" s="3"/>
+    </row>
+    <row r="186" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N186" s="3"/>
+    </row>
+    <row r="187" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N187" s="3"/>
+    </row>
+    <row r="188" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N188" s="3"/>
+    </row>
+    <row r="189" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N189" s="3"/>
+    </row>
+    <row r="190" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N190" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/occurences/interim/NorthernSpain_ES_TOTAL_v1.xlsx
+++ b/data/occurences/interim/NorthernSpain_ES_TOTAL_v1.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{2E796F1C-C6A4-4BA0-8FBB-0E686A07A5DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{6904BC13-5D81-417D-9CAD-9E9719C848B8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1664,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF190"/>
   <sheetViews>
-    <sheetView topLeftCell="H55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P78" sqref="P78"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16889,7 +16889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E53F98C-C9C3-4A73-95D1-4B8B4ABD340A}">
   <dimension ref="A1:N190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
